--- a/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
+++ b/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064CCF57-9EE7-4A7D-856E-B1E0B9167C86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{B7E1C24D-42C2-47C9-BF8E-987C0DCD14F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Richard Ketchersid - Personal View" guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}" mergeInterval="0" personalView="1" xWindow="64" yWindow="64" windowWidth="1606" windowHeight="950" tabRatio="500" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
@@ -618,9 +618,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,30 +627,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -663,26 +642,79 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,47 +724,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -760,35 +751,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J1" sqref="J1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,69 +1183,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="33"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>15</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f ca="1">RANDBETWEEN(1,$A$3)</f>
-        <v>5</v>
-      </c>
-      <c r="C3" s="23">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16">
         <f ca="1">RANDBETWEEN(1,$A$3)</f>
-        <v>10</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
       <c r="F3" s="5">
@@ -1258,21 +1258,21 @@
         <f>ABS(G3-H3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="24">
+      <c r="B4" s="10"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="17">
         <f>E3+1</f>
         <v>2</v>
       </c>
@@ -1286,19 +1286,19 @@
         <f t="shared" ref="I4:I17" si="1">ABS(G4-H4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="24">
+      <c r="A5" s="56"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="17">
         <f t="shared" ref="E5:E17" si="2">E4+1</f>
         <v>3</v>
       </c>
@@ -1312,19 +1312,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="24">
+      <c r="A6" s="56"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="17">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -1338,46 +1338,46 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="24">
+      <c r="A7" s="56"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="17">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="40">
+      <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="24">
+      <c r="A8" s="57"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="17">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -1387,21 +1387,21 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="40">
+      <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="24">
+      <c r="A9" s="13"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="17">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -1411,43 +1411,43 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="40">
+      <c r="I9" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="50"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="23"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="24">
+      <c r="C10" s="16"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="17">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="40">
+      <c r="I10" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C11" s="23"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="24">
+      <c r="C11" s="16"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="17">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -1457,23 +1457,23 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="40">
+      <c r="I11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24">
+      <c r="C12" s="16"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="40">
+      <c r="I12" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <f ca="1">SUM(F3:F17)</f>
         <v>1</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="24">
+      <c r="B13" s="10"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="17">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -1511,20 +1511,20 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="40">
+      <c r="I13" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="23"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="24">
+      <c r="C14" s="16"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="17">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -1534,23 +1534,23 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="40">
+      <c r="I14" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="24">
+      <c r="C15" s="16"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="17">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1560,25 +1560,25 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="40">
+      <c r="I15" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <f ca="1">SUM(F22:F36)</f>
         <v>1</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="24">
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="17">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -1588,24 +1588,24 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="40">
+      <c r="I16" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="24">
+      <c r="B17" s="10"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -1615,85 +1615,85 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="40">
+      <c r="I17" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="50"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="47"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="11"/>
-      <c r="D18" s="22"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="10"/>
+      <c r="D18" s="15"/>
       <c r="H18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="50"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="47"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="11"/>
-      <c r="D19" s="22"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="50"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="10"/>
+      <c r="D19" s="15"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="11"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="29" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="50"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="11"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="28" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="10"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="50"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="10"/>
       <c r="E22" s="5">
         <v>1</v>
       </c>
@@ -1703,42 +1703,42 @@
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="40">
+      <c r="I22" s="25">
         <f>ABS(G22-H22)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="50"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="10"/>
       <c r="E23" s="5">
         <f>E22+1</f>
         <v>2</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="40">
+      <c r="I23" s="25">
         <f t="shared" ref="I23:I36" si="4">ABS(G23-H23)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="50"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="10"/>
       <c r="E24" s="5">
         <f t="shared" ref="E24:E36" si="5">E23+1</f>
         <v>3</v>
@@ -1749,19 +1749,19 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="40">
+      <c r="I24" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="10"/>
       <c r="E25" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -1772,15 +1772,15 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="40">
+      <c r="I25" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="50"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E26" s="5">
@@ -1793,15 +1793,15 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="40">
+      <c r="I26" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E27" s="5">
@@ -1814,15 +1814,15 @@
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="40">
+      <c r="I27" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="5">
@@ -1835,15 +1835,15 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="40">
+      <c r="I28" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="53"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="5">
@@ -1872,17 +1872,17 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="40">
+      <c r="I30" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="54"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="33"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E31" s="5">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1899,10 +1899,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="59"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="36"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E32" s="5">
@@ -1919,10 +1919,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="59"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="36"/>
     </row>
     <row r="33" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="5">
@@ -1939,10 +1939,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K33" s="60"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="62"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="39"/>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E34" s="5">
@@ -2010,6 +2010,9 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="10">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="D3:D17"/>
     <mergeCell ref="K30:N33"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J7:N28"/>
@@ -2017,9 +2020,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="D3:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
+++ b/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{A843C597-6FBF-4525-85A9-51BA7A23E4A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{A32D0EEB-4B87-43C9-A915-3CD57D78A926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="810" windowWidth="25230" windowHeight="12900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>Number of sides</t>
   </si>
@@ -123,29 +123,6 @@
     <t>Response:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Column E displays the possible outcomes.  
-The "COUNTIF" command in column F counts the number of occurrences of each outcome.  
-If you chose a different number of sides for your die, you'll need to adjust the number of rows in columns E and F.  
-Write a formula to calculate the empirical probabilities in column G.  This is done by dividing the frequency of each outcome by the number of rolls (you will need to lock this cell reference in your formula).  
-Write a formula to calculate the theoretical probabilities for each outcome in column H.  This is done by dividing 1 by the number of sides of the dice  (you will need to lock this cell reference in your formula).
-The absolute difference compares the empirical and theoretical probabilities for each outcome. 
-Write a formula to calculate the average of the absolute differences for each table in cells I18 and I37.
-Compare the two averages differences. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>What do you notice?</t>
-    </r>
-  </si>
-  <si>
     <t>Roll</t>
   </si>
   <si>
@@ -187,7 +164,40 @@
     <t>A14/A17 must be formulas as indicated! =SUM(FREQ) works where FREQ is the range where frequency is.</t>
   </si>
   <si>
-    <t>Your Name</t>
+    <t>namex</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Column E displays the possible outcomes.  
+The "COUNTIF" command in column G counts the number of occurrences of each outcome. 
+1) Write a formula to calculate the empirical probabilities in column G.  This is done by dividing the frequency of each outcome by the number of rolls (you will need to lock this cell reference in your formula).  
+2) Write a formula to calculate the theoretical probabilities for each outcome in column H.  This is done by dividing 1 by the number of sides of the dice  (you will need to lock this cell reference in your formula).
+3) The absolute difference compares the empirical and theoretical probabilities for each outcome. Write a formula to calculate the average of the absolute differences for each table in cells J19 and I38.
+4) Rerun the sheet 5 times and record the average errors. Do this by pressing &lt;fn&gt;&lt;f9&gt; or just &lt;f9&gt; on windows. You can just type something in the response cell and hit &lt;enter&gt; this will rerun the sheet. Compare the two averages differences. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What do you notice?</t>
+    </r>
+  </si>
+  <si>
+    <t>Table of average errors</t>
+  </si>
+  <si>
+    <t>1000 rolls</t>
+  </si>
+  <si>
+    <t>4000 rolls</t>
+  </si>
+  <si>
+    <t>rep</t>
   </si>
 </sst>
 </file>
@@ -197,9 +207,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -317,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +382,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -752,34 +775,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -806,10 +919,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -820,180 +933,180 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1005,50 +1118,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1059,134 +1154,179 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1243,15 +1383,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1203960</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>975360</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>606552</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>377952</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1266,8 +1406,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11734800" y="5265420"/>
-          <a:ext cx="926592" cy="243840"/>
+          <a:off x="11986260" y="5614035"/>
+          <a:ext cx="926592" cy="262890"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1369,8 +1509,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F4837C1A-B58E-4B20-8209-EF71ADD3F22A}">
-  <header guid="{F4837C1A-B58E-4B20-8209-EF71ADD3F22A}" dateTime="2021-04-15T14:08:08" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4EE56B95-61B5-4607-8484-292DB7B7555E}">
+  <header guid="{4EE56B95-61B5-4607-8484-292DB7B7555E}" dateTime="2021-06-10T08:54:04" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1384,9 +1524,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{F4837C1A-B58E-4B20-8209-EF71ADD3F22A}" name="Richard Ketchersid" id="-1739560928" dateTime="2021-04-15T14:08:08"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1655,8 +1793,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O4003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,39 +1815,39 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="53"/>
-      <c r="E1" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
+      <c r="E1" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:15" ht="15.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="66" t="s">
         <v>16</v>
       </c>
@@ -1720,11 +1858,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="22" t="s">
         <v>2</v>
       </c>
@@ -1750,20 +1888,20 @@
     <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49">
         <f>MOD(LEN(C1)*5857,6)+10</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="20">
         <v>1</v>
       </c>
       <c r="C4" s="45">
         <f ca="1">RANDBETWEEN(1,$A$4)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="46">
         <f ca="1">RANDBETWEEN(1,$A$4)</f>
-        <v>13</v>
-      </c>
-      <c r="E4" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="7">
@@ -1794,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="46"/>
-      <c r="E5" s="84"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="7">
         <f>F4+1</f>
         <v>2</v>
@@ -1822,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="46"/>
-      <c r="E6" s="84"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="7">
         <f t="shared" ref="F6:F18" si="2">F5+1</f>
         <v>3</v>
@@ -1850,14 +1988,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="46"/>
-      <c r="E7" s="84"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -1878,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="46"/>
-      <c r="E8" s="84"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1893,13 +2031,13 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K8" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70"/>
+      <c r="K8" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="115"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
@@ -1907,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="46"/>
-      <c r="E9" s="84"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1922,28 +2060,28 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K9" s="71"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="73"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="117"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
-        <v>35</v>
+      <c r="A10" s="83" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="20">
         <v>7</v>
       </c>
       <c r="D10" s="46"/>
-      <c r="E10" s="84"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -1951,19 +2089,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="73"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="117"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="20">
         <v>8</v>
       </c>
       <c r="D11" s="46"/>
-      <c r="E11" s="84"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1978,19 +2116,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="117"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="20">
         <v>9</v>
       </c>
       <c r="D12" s="46"/>
-      <c r="E12" s="84"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2005,11 +2143,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="73"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="117"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -2019,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="46"/>
-      <c r="E13" s="84"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -2034,11 +2172,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="117"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
@@ -2046,7 +2184,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="46"/>
-      <c r="E14" s="84"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="7">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -2061,18 +2199,18 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="73"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="117"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20">
         <v>12</v>
       </c>
       <c r="D15" s="46"/>
-      <c r="E15" s="84"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="7">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -2087,11 +2225,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="73"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="117"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -2101,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="46"/>
-      <c r="E16" s="84"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="7">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -2116,11 +2254,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="73"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="117"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
@@ -2128,7 +2266,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="46"/>
-      <c r="E17" s="84"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -2143,21 +2281,21 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="73"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="117"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
-        <v>32</v>
+      <c r="A18" s="77" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="20">
         <v>15</v>
       </c>
       <c r="D18" s="46"/>
-      <c r="E18" s="84"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="7">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2172,63 +2310,63 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="73"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="117"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="20">
         <v>16</v>
       </c>
       <c r="D19" s="46"/>
-      <c r="E19" s="84"/>
+      <c r="E19" s="75"/>
       <c r="I19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="48"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="73"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="117"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="20">
         <v>17</v>
       </c>
       <c r="D20" s="46"/>
-      <c r="E20" s="85"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="73"/>
+      <c r="E20" s="76"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="117"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="20">
         <v>18</v>
       </c>
       <c r="E21" s="21"/>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="73"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="117"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="20">
         <v>19</v>
       </c>
@@ -2248,14 +2386,14 @@
       <c r="J22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="73"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="117"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="20">
         <v>20</v>
       </c>
@@ -2272,14 +2410,14 @@
         <f>IF(OR(ISBLANK(H23),ISBLANK(I23))," ",ABS(H23-I23))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="73"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="117"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="20">
         <v>21</v>
       </c>
@@ -2297,14 +2435,14 @@
         <f t="shared" ref="J24:J37" si="4">IF(OR(ISBLANK(H24),ISBLANK(I24))," ",ABS(H24-I24))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="73"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="117"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="20">
         <v>22</v>
       </c>
@@ -2314,7 +2452,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -2322,14 +2460,14 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K25" s="71"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="73"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="117"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="20">
         <v>23</v>
       </c>
@@ -2347,14 +2485,14 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="73"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="117"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="20">
         <v>24</v>
       </c>
@@ -2372,14 +2510,14 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K27" s="71"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="73"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="117"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="20">
         <v>25</v>
       </c>
@@ -2397,14 +2535,14 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K28" s="71"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="73"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="117"/>
     </row>
     <row r="29" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="20">
         <v>26</v>
       </c>
@@ -2422,13 +2560,13 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K29" s="74"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="76"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="120"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20">
         <v>27</v>
       </c>
@@ -2446,8 +2584,15 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="57"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="59"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="20">
         <v>28</v>
       </c>
@@ -2465,15 +2610,12 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K31" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="59"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L31" s="60"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="62"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="20">
         <v>29</v>
       </c>
@@ -2496,7 +2638,7 @@
       <c r="N32" s="61"/>
       <c r="O32" s="62"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20">
         <v>30</v>
       </c>
@@ -2514,12 +2656,12 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="62"/>
-    </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="63"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="65"/>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="20">
         <v>31</v>
       </c>
@@ -2537,12 +2679,13 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L34" s="63"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="65"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+    </row>
+    <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="20">
         <v>32</v>
       </c>
@@ -2552,7 +2695,7 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
@@ -2560,6 +2703,11 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="20">
@@ -2608,45 +2756,83 @@
       </c>
       <c r="J38" s="47"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="20">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="20">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H40" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="123"/>
+    </row>
+    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="20">
         <v>38</v>
+      </c>
+      <c r="G41" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="124" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="20">
         <v>39</v>
       </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="125"/>
+      <c r="I42" s="126"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="20">
         <v>40</v>
       </c>
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="127"/>
+      <c r="I43" s="128"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="20">
         <v>41</v>
       </c>
+      <c r="G44" s="2">
+        <v>3</v>
+      </c>
+      <c r="H44" s="127"/>
+      <c r="I44" s="128"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="20">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G45" s="2">
+        <v>4</v>
+      </c>
+      <c r="H45" s="127"/>
+      <c r="I45" s="128"/>
+    </row>
+    <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="20">
         <v>43</v>
       </c>
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="129"/>
+      <c r="I46" s="130"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="20">
@@ -22434,22 +22620,23 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0HlH9SrLq+/LZQGUtdecihkh61+gSl0nLTgDV8m+EwzlxdrIxvvSknmIA3G/zwU+R/oBNkd4EhaCCZx6vZcwwg==" saltValue="ELLyNPDF/XKpkzUgU0Dldg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F4:F103">
     <sortCondition ref="F4:F103"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <customSheetView guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}" topLeftCell="A20">
+      <selection activeCell="L39" sqref="L39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="L31:O34"/>
+    <mergeCell ref="L30:O33"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K8:O29"/>
     <mergeCell ref="C2:C3"/>
@@ -22462,7 +22649,7 @@
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <conditionalFormatting sqref="A13:L5000 B11:L12 A2:L10">
+  <conditionalFormatting sqref="B11:J12 A2:L7 A9:J10 A8:K8 A13:J35 A36:L36 A41:L5000 A37:J39 K30:L33 A40:H40 J40">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$C$1="Your Name"</formula>
     </cfRule>
@@ -22546,37 +22733,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="109" t="s">
+      <c r="E1" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="115" t="s">
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="116"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="114"/>
+        <v>28</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="26" t="s">
         <v>2</v>
       </c>
@@ -22602,20 +22789,20 @@
     <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29">
         <f>Probs!A4</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="30">
         <v>1</v>
       </c>
       <c r="C3" s="31">
         <f ca="1">Probs!C4</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="31">
         <f ca="1">Probs!D4</f>
-        <v>13</v>
-      </c>
-      <c r="E3" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="108" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="32">
@@ -22631,11 +22818,11 @@
       </c>
       <c r="I3" s="33">
         <f>IF(F3&lt;=A$3,1/A$3,NA())</f>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J3" s="33">
         <f ca="1">ABS(H3-I3)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K3" s="27" t="s">
         <v>19</v>
@@ -22645,7 +22832,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="85" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="30">
@@ -22659,7 +22846,7 @@
         <f>Probs!D5</f>
         <v>0</v>
       </c>
-      <c r="E4" s="118"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="32">
         <f>F3+1</f>
         <v>2</v>
@@ -22674,11 +22861,11 @@
       </c>
       <c r="I4" s="33">
         <f t="shared" ref="I4:I17" si="2">IF(F4&lt;=A$3,1/A$3,NA())</f>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" ref="J4:J17" ca="1" si="3">ABS(H4-I4)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>21</v>
@@ -22688,7 +22875,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="30">
         <v>3</v>
       </c>
@@ -22700,7 +22887,7 @@
         <f>Probs!D6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="118"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="32">
         <f t="shared" ref="F5:F17" si="4">F4+1</f>
         <v>3</v>
@@ -22715,11 +22902,11 @@
       </c>
       <c r="I5" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>23</v>
@@ -22729,7 +22916,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="30">
         <v>4</v>
       </c>
@@ -22741,26 +22928,26 @@
         <f>Probs!D7</f>
         <v>0</v>
       </c>
-      <c r="E6" s="118"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="32">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G6" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J6" s="33">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="K6" s="34" t="s">
         <v>25</v>
@@ -22770,7 +22957,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="30">
         <v>5</v>
       </c>
@@ -22782,7 +22969,7 @@
         <f>Probs!D8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="118"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -22797,22 +22984,22 @@
       </c>
       <c r="I7" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J7" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K7" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="99"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K7" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="90"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="30">
         <v>6</v>
       </c>
@@ -22824,7 +23011,7 @@
         <f>Probs!D9</f>
         <v>0</v>
       </c>
-      <c r="E8" s="118"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="32">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -22839,17 +23026,17 @@
       </c>
       <c r="I8" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K8" s="91"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="93"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
@@ -22864,32 +23051,32 @@
         <f>Probs!D10</f>
         <v>0</v>
       </c>
-      <c r="E9" s="118"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="32">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G9" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J9" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K9" s="91"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="93"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="30">
@@ -22903,7 +23090,7 @@
         <f>Probs!D11</f>
         <v>0</v>
       </c>
-      <c r="E10" s="118"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="32">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -22918,17 +23105,17 @@
       </c>
       <c r="I10" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="93"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
@@ -22945,7 +23132,7 @@
         <f>Probs!D12</f>
         <v>0</v>
       </c>
-      <c r="E11" s="118"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="32">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -22960,17 +23147,17 @@
       </c>
       <c r="I11" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K11" s="91"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="93"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
@@ -22987,7 +23174,7 @@
         <f>Probs!D13</f>
         <v>0</v>
       </c>
-      <c r="E12" s="118"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="32">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -23002,17 +23189,17 @@
       </c>
       <c r="I12" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J12" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="93"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
@@ -23030,7 +23217,7 @@
         <f>Probs!D14</f>
         <v>0</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="32">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -23045,17 +23232,17 @@
       </c>
       <c r="I13" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J13" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="93"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
@@ -23072,7 +23259,7 @@
         <f>Probs!D15</f>
         <v>0</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="32">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -23087,17 +23274,17 @@
       </c>
       <c r="I14" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J14" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="93"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -23114,7 +23301,7 @@
         <f>Probs!D16</f>
         <v>0</v>
       </c>
-      <c r="E15" s="118"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="32">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -23129,17 +23316,17 @@
       </c>
       <c r="I15" s="33">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J15" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K15" s="91"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="93"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
@@ -23157,7 +23344,7 @@
         <f>Probs!D17</f>
         <v>0</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="32">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -23166,26 +23353,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="33" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I16" s="33" t="e">
+      <c r="H16" s="33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="33">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J16" s="36" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J16" s="36">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="93"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="97" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="30">
@@ -23199,7 +23386,7 @@
         <f>Probs!D18</f>
         <v>0</v>
       </c>
-      <c r="E17" s="119"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="32">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -23208,26 +23395,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="33" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I17" s="33" t="e">
+      <c r="H17" s="33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="33">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J17" s="36" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J17" s="36">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K17" s="91"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="93"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="30">
         <v>16</v>
       </c>
@@ -23245,16 +23432,16 @@
       </c>
       <c r="J18" s="36">
         <f ca="1">SUMIF(J3:J17,"&lt;&gt;#N/A")/COUNTIF(J3:J17,"&lt;&gt;#N/A")</f>
-        <v>0.1420118343195266</v>
-      </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+        <v>0.12444444444444443</v>
+      </c>
+      <c r="K18" s="91"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="93"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="30">
         <v>17</v>
       </c>
@@ -23267,14 +23454,14 @@
         <v>0</v>
       </c>
       <c r="E19" s="39"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="102"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="93"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="30">
         <v>18</v>
       </c>
@@ -23287,21 +23474,21 @@
         <v>0</v>
       </c>
       <c r="E20" s="39"/>
-      <c r="F20" s="109" t="s">
+      <c r="F20" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="102"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="93"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="30">
         <v>19</v>
       </c>
@@ -23329,14 +23516,14 @@
       <c r="J21" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="100"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="102"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="93"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="30">
         <v>20</v>
       </c>
@@ -23361,20 +23548,20 @@
       </c>
       <c r="I22" s="33">
         <f>IF(F22&lt;=A$3,1/A$3,NA())</f>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J22" s="36">
         <f ca="1">ABS(H22-I22)</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K22" s="100"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="93"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="30">
         <v>21</v>
       </c>
@@ -23400,20 +23587,20 @@
       </c>
       <c r="I23" s="33">
         <f t="shared" ref="I23:I36" si="7">IF(F23&lt;=A$3,1/A$3,NA())</f>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J23" s="36">
         <f t="shared" ref="J23:J36" ca="1" si="8">ABS(H23-I23)</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="93"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="30">
         <v>22</v>
       </c>
@@ -23431,28 +23618,28 @@
       </c>
       <c r="G24" s="31">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="33">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J24" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K24" s="100"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="102"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="K24" s="91"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="93"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="30">
         <v>23</v>
       </c>
@@ -23478,17 +23665,17 @@
       </c>
       <c r="I25" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J25" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K25" s="100"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K25" s="91"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="93"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="30">
@@ -23516,17 +23703,17 @@
       </c>
       <c r="I26" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J26" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K26" s="100"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K26" s="91"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="93"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="30">
@@ -23554,17 +23741,17 @@
       </c>
       <c r="I27" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J27" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K27" s="100"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K27" s="91"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="93"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30">
@@ -23592,17 +23779,17 @@
       </c>
       <c r="I28" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J28" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K28" s="103"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="105"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K28" s="94"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="96"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30">
@@ -23630,11 +23817,11 @@
       </c>
       <c r="I29" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J29" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23663,19 +23850,19 @@
       </c>
       <c r="I30" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J30" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K30" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="97"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="99"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="90"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="30">
@@ -23703,16 +23890,16 @@
       </c>
       <c r="I31" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J31" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L31" s="100"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L31" s="91"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="93"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="30">
@@ -23740,16 +23927,16 @@
       </c>
       <c r="I32" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J32" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L32" s="100"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="102"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L32" s="91"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="93"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="30">
@@ -23777,16 +23964,16 @@
       </c>
       <c r="I33" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J33" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L33" s="103"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="105"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L33" s="94"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="96"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="30">
@@ -23806,19 +23993,19 @@
       </c>
       <c r="G34" s="31">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="33">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="33">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="J34" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92307692307692313</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -23841,17 +24028,17 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="H35" s="33" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I35" s="33" t="e">
+      <c r="H35" s="33">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="33">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J35" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J35" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -23874,17 +24061,17 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="H36" s="33" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I36" s="33" t="e">
+      <c r="H36" s="33">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="33">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J36" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J36" s="33">
+        <f t="shared" ca="1" si="8"/>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -23904,7 +24091,7 @@
       </c>
       <c r="J37" s="33">
         <f ca="1">SUMIF(J22:J36,"&lt;&gt;#N/A")/COUNTIF(J22:J36,"&lt;&gt;#N/A")</f>
-        <v>0.14201183431952663</v>
+        <v>0.12444444444444443</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -75481,6 +75668,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -75720,25 +75925,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C705C33E-EE22-4391-BE29-570BA86210E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8374F016-ABDB-4B47-B726-13276895A1B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C401BC30-9683-4D77-8E53-95B6F9FE08C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -75756,22 +75961,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8374F016-ABDB-4B47-B726-13276895A1B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C705C33E-EE22-4391-BE29-570BA86210E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
+++ b/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{A32D0EEB-4B87-43C9-A915-3CD57D78A926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{ACD3D0ED-7E5D-49E5-8E03-42BABDA65E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="810" windowWidth="25230" windowHeight="12900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>A14/A17 must be formulas as indicated! =SUM(FREQ) works where FREQ is the range where frequency is.</t>
   </si>
   <si>
-    <t>namex</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Column E displays the possible outcomes.  
 The "COUNTIF" command in column G counts the number of occurrences of each outcome. 
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>rep</t>
+  </si>
+  <si>
+    <t>Your Name</t>
   </si>
 </sst>
 </file>
@@ -1051,6 +1051,33 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1117,6 +1144,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1273,60 +1327,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1509,8 +1509,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4EE56B95-61B5-4607-8484-292DB7B7555E}">
-  <header guid="{4EE56B95-61B5-4607-8484-292DB7B7555E}" dateTime="2021-06-10T08:54:04" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{28615EF2-E335-4006-B9D8-BFE63DC02D3A}">
+  <header guid="{28615EF2-E335-4006-B9D8-BFE63DC02D3A}" dateTime="2021-07-01T00:13:07" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1524,7 +1524,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{28615EF2-E335-4006-B9D8-BFE63DC02D3A}" name="Richard Ketchersid" id="-1739549312" dateTime="2021-07-01T00:13:07"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1793,8 +1795,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O4003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,44 +1816,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="80" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" spans="1:15" ht="15.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="66" t="s">
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="67"/>
+      <c r="L2" s="78"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1860,9 +1862,9 @@
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="73"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="22" t="s">
         <v>2</v>
       </c>
@@ -1888,20 +1890,20 @@
     <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49">
         <f>MOD(LEN(C1)*5857,6)+10</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="20">
         <v>1</v>
       </c>
       <c r="C4" s="45">
         <f ca="1">RANDBETWEEN(1,$A$4)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="46">
         <f ca="1">RANDBETWEEN(1,$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="94" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="7">
@@ -1925,14 +1927,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="20">
         <v>2</v>
       </c>
       <c r="D5" s="46"/>
-      <c r="E5" s="75"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="7">
         <f>F4+1</f>
         <v>2</v>
@@ -1955,12 +1957,12 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="20">
         <v>3</v>
       </c>
       <c r="D6" s="46"/>
-      <c r="E6" s="75"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="7">
         <f t="shared" ref="F6:F18" si="2">F5+1</f>
         <v>3</v>
@@ -1983,19 +1985,19 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="20">
         <v>4</v>
       </c>
       <c r="D7" s="46"/>
-      <c r="E7" s="75"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -2011,12 +2013,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="20">
         <v>5</v>
       </c>
       <c r="D8" s="46"/>
-      <c r="E8" s="75"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2031,21 +2033,21 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K8" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="115"/>
+      <c r="K8" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="81"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="20">
         <v>6</v>
       </c>
       <c r="D9" s="46"/>
-      <c r="E9" s="75"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -2060,21 +2062,21 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="117"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="84"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="103" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="20">
         <v>7</v>
       </c>
       <c r="D10" s="46"/>
-      <c r="E10" s="75"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2089,19 +2091,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K10" s="116"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="117"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="84"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="20">
         <v>8</v>
       </c>
       <c r="D11" s="46"/>
-      <c r="E11" s="75"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2116,26 +2118,26 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K11" s="116"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="117"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="20">
         <v>9</v>
       </c>
       <c r="D12" s="46"/>
-      <c r="E12" s="75"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -2143,11 +2145,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K12" s="116"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="117"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="84"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -2157,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="46"/>
-      <c r="E13" s="75"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -2172,11 +2174,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K13" s="116"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="117"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
@@ -2184,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="46"/>
-      <c r="E14" s="75"/>
+      <c r="E14" s="95"/>
       <c r="F14" s="7">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -2199,18 +2201,18 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K14" s="116"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="117"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="84"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20">
         <v>12</v>
       </c>
       <c r="D15" s="46"/>
-      <c r="E15" s="75"/>
+      <c r="E15" s="95"/>
       <c r="F15" s="7">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -2225,11 +2227,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K15" s="116"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="117"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="84"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -2239,7 +2241,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="46"/>
-      <c r="E16" s="75"/>
+      <c r="E16" s="95"/>
       <c r="F16" s="7">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -2254,11 +2256,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K16" s="116"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="117"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="84"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
@@ -2266,7 +2268,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="46"/>
-      <c r="E17" s="75"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -2281,21 +2283,21 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K17" s="116"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="117"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="84"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="20">
         <v>15</v>
       </c>
       <c r="D18" s="46"/>
-      <c r="E18" s="75"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="7">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2310,63 +2312,63 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K18" s="116"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="117"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="84"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="20">
         <v>16</v>
       </c>
       <c r="D19" s="46"/>
-      <c r="E19" s="75"/>
+      <c r="E19" s="95"/>
       <c r="I19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="48"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="117"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="84"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="20">
         <v>17</v>
       </c>
       <c r="D20" s="46"/>
-      <c r="E20" s="76"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="117"/>
+      <c r="E20" s="96"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="20">
         <v>18</v>
       </c>
       <c r="E21" s="21"/>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="117"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="84"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="20">
         <v>19</v>
       </c>
@@ -2386,14 +2388,14 @@
       <c r="J22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="116"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="117"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="84"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="20">
         <v>20</v>
       </c>
@@ -2410,14 +2412,14 @@
         <f>IF(OR(ISBLANK(H23),ISBLANK(I23))," ",ABS(H23-I23))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K23" s="116"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="117"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="84"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="20">
         <v>21</v>
       </c>
@@ -2435,14 +2437,14 @@
         <f t="shared" ref="J24:J37" si="4">IF(OR(ISBLANK(H24),ISBLANK(I24))," ",ABS(H24-I24))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K24" s="116"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="117"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="84"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="20">
         <v>22</v>
       </c>
@@ -2452,7 +2454,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -2460,14 +2462,14 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K25" s="116"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="117"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="84"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="20">
         <v>23</v>
       </c>
@@ -2485,14 +2487,14 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K26" s="116"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="117"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="84"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="20">
         <v>24</v>
       </c>
@@ -2510,14 +2512,14 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K27" s="116"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="117"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="84"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="20">
         <v>25</v>
       </c>
@@ -2535,14 +2537,14 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K28" s="116"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="117"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="84"/>
     </row>
     <row r="29" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="79"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="20">
         <v>26</v>
       </c>
@@ -2560,11 +2562,11 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K29" s="118"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="120"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="87"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20">
@@ -2587,10 +2589,10 @@
       <c r="K30" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="59"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="70"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="20">
@@ -2610,10 +2612,10 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L31" s="60"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="62"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="73"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="20">
@@ -2633,10 +2635,10 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="62"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="73"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20">
@@ -2656,10 +2658,10 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L33" s="63"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="65"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="76"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="20">
@@ -2679,11 +2681,11 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="20">
@@ -2695,7 +2697,7 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
@@ -2703,11 +2705,11 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="20">
@@ -2765,23 +2767,23 @@
       <c r="B40" s="20">
         <v>37</v>
       </c>
-      <c r="H40" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="123"/>
+      <c r="H40" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="60"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="20">
         <v>38</v>
       </c>
-      <c r="G41" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="124" t="s">
+      <c r="G41" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="52" t="s">
         <v>38</v>
-      </c>
-      <c r="I41" s="124" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -2791,8 +2793,8 @@
       <c r="G42" s="2">
         <v>1</v>
       </c>
-      <c r="H42" s="125"/>
-      <c r="I42" s="126"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="54"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="20">
@@ -2801,8 +2803,8 @@
       <c r="G43" s="2">
         <v>2</v>
       </c>
-      <c r="H43" s="127"/>
-      <c r="I43" s="128"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="56"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="20">
@@ -2811,8 +2813,8 @@
       <c r="G44" s="2">
         <v>3</v>
       </c>
-      <c r="H44" s="127"/>
-      <c r="I44" s="128"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="56"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="20">
@@ -2821,8 +2823,8 @@
       <c r="G45" s="2">
         <v>4</v>
       </c>
-      <c r="H45" s="127"/>
-      <c r="I45" s="128"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="56"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="20">
@@ -2831,8 +2833,8 @@
       <c r="G46" s="2">
         <v>5</v>
       </c>
-      <c r="H46" s="129"/>
-      <c r="I46" s="130"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="58"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="20">
@@ -22625,8 +22627,8 @@
     <sortCondition ref="F4:F103"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}" topLeftCell="A20">
-      <selection activeCell="L39" sqref="L39"/>
+    <customSheetView guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}">
+      <selection activeCell="C2" sqref="C2:C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
@@ -22655,7 +22657,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2:E3" r:id="rId2" display="https://youtu.be/XXJU6NstrXE" xr:uid="{41C795B5-0A27-44B1-B70D-D3D366ECA63E}"/>
+    <hyperlink ref="E2:E3" r:id="rId2" display="https://youtu.be/j29NbmJBA2Q" xr:uid="{41C795B5-0A27-44B1-B70D-D3D366ECA63E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -22733,26 +22735,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="106" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="107"/>
+      <c r="L1" s="127"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
@@ -22761,9 +22763,9 @@
       <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="105"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="125"/>
       <c r="F2" s="26" t="s">
         <v>2</v>
       </c>
@@ -22789,20 +22791,20 @@
     <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29">
         <f>Probs!A4</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="30">
         <v>1</v>
       </c>
       <c r="C3" s="31">
         <f ca="1">Probs!C4</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" s="31">
         <f ca="1">Probs!D4</f>
-        <v>3</v>
-      </c>
-      <c r="E3" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="128" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="32">
@@ -22818,11 +22820,11 @@
       </c>
       <c r="I3" s="33">
         <f>IF(F3&lt;=A$3,1/A$3,NA())</f>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J3" s="33">
         <f ca="1">ABS(H3-I3)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K3" s="27" t="s">
         <v>19</v>
@@ -22832,7 +22834,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="105" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="30">
@@ -22846,7 +22848,7 @@
         <f>Probs!D5</f>
         <v>0</v>
       </c>
-      <c r="E4" s="109"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="32">
         <f>F3+1</f>
         <v>2</v>
@@ -22861,11 +22863,11 @@
       </c>
       <c r="I4" s="33">
         <f t="shared" ref="I4:I17" si="2">IF(F4&lt;=A$3,1/A$3,NA())</f>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" ref="J4:J17" ca="1" si="3">ABS(H4-I4)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>21</v>
@@ -22875,7 +22877,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="30">
         <v>3</v>
       </c>
@@ -22887,7 +22889,7 @@
         <f>Probs!D6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="129"/>
       <c r="F5" s="32">
         <f t="shared" ref="F5:F17" si="4">F4+1</f>
         <v>3</v>
@@ -22902,11 +22904,11 @@
       </c>
       <c r="I5" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>23</v>
@@ -22916,7 +22918,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="30">
         <v>4</v>
       </c>
@@ -22928,26 +22930,26 @@
         <f>Probs!D7</f>
         <v>0</v>
       </c>
-      <c r="E6" s="109"/>
+      <c r="E6" s="129"/>
       <c r="F6" s="32">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G6" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J6" s="33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93333333333333335</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K6" s="34" t="s">
         <v>25</v>
@@ -22957,7 +22959,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="30">
         <v>5</v>
       </c>
@@ -22969,7 +22971,7 @@
         <f>Probs!D8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="109"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="32">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -22984,22 +22986,22 @@
       </c>
       <c r="I7" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J7" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K7" s="88" t="s">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K7" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="90"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="110"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="30">
         <v>6</v>
       </c>
@@ -23011,7 +23013,7 @@
         <f>Probs!D9</f>
         <v>0</v>
       </c>
-      <c r="E8" s="109"/>
+      <c r="E8" s="129"/>
       <c r="F8" s="32">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -23026,17 +23028,17 @@
       </c>
       <c r="I8" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K8" s="111"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="113"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
@@ -23051,7 +23053,7 @@
         <f>Probs!D10</f>
         <v>0</v>
       </c>
-      <c r="E9" s="109"/>
+      <c r="E9" s="129"/>
       <c r="F9" s="32">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -23066,17 +23068,17 @@
       </c>
       <c r="I9" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J9" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="113"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="30">
@@ -23090,7 +23092,7 @@
         <f>Probs!D11</f>
         <v>0</v>
       </c>
-      <c r="E10" s="109"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="32">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -23105,17 +23107,17 @@
       </c>
       <c r="I10" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J10" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="113"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
@@ -23132,32 +23134,32 @@
         <f>Probs!D12</f>
         <v>0</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="32">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G11" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J11" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="93"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="113"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
@@ -23174,7 +23176,7 @@
         <f>Probs!D13</f>
         <v>0</v>
       </c>
-      <c r="E12" s="109"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="32">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -23189,17 +23191,17 @@
       </c>
       <c r="I12" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J12" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K12" s="111"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="113"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
@@ -23217,7 +23219,7 @@
         <f>Probs!D14</f>
         <v>0</v>
       </c>
-      <c r="E13" s="109"/>
+      <c r="E13" s="129"/>
       <c r="F13" s="32">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -23232,17 +23234,17 @@
       </c>
       <c r="I13" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J13" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K13" s="111"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="113"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
@@ -23259,7 +23261,7 @@
         <f>Probs!D15</f>
         <v>0</v>
       </c>
-      <c r="E14" s="109"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="32">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -23274,17 +23276,17 @@
       </c>
       <c r="I14" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J14" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K14" s="111"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="113"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
@@ -23301,7 +23303,7 @@
         <f>Probs!D16</f>
         <v>0</v>
       </c>
-      <c r="E15" s="109"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="32">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -23316,17 +23318,17 @@
       </c>
       <c r="I15" s="33">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J15" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K15" s="111"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="113"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
@@ -23344,7 +23346,7 @@
         <f>Probs!D17</f>
         <v>0</v>
       </c>
-      <c r="E16" s="109"/>
+      <c r="E16" s="129"/>
       <c r="F16" s="32">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -23353,26 +23355,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="33">
+      <c r="H16" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="33" t="e">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J16" s="36">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="93"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="113"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="117" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="30">
@@ -23386,7 +23388,7 @@
         <f>Probs!D18</f>
         <v>0</v>
       </c>
-      <c r="E17" s="110"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="32">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -23395,26 +23397,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="33">
+      <c r="H17" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="33" t="e">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J17" s="36">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="93"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J17" s="36" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K17" s="111"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="113"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="30">
         <v>16</v>
       </c>
@@ -23432,16 +23434,16 @@
       </c>
       <c r="J18" s="36">
         <f ca="1">SUMIF(J3:J17,"&lt;&gt;#N/A")/COUNTIF(J3:J17,"&lt;&gt;#N/A")</f>
-        <v>0.12444444444444443</v>
-      </c>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="93"/>
+        <v>0.14201183431952663</v>
+      </c>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="113"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="30">
         <v>17</v>
       </c>
@@ -23454,14 +23456,14 @@
         <v>0</v>
       </c>
       <c r="E19" s="39"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="93"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="113"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="30">
         <v>18</v>
       </c>
@@ -23474,21 +23476,21 @@
         <v>0</v>
       </c>
       <c r="E20" s="39"/>
-      <c r="F20" s="100" t="s">
+      <c r="F20" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="93"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="113"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="30">
         <v>19</v>
       </c>
@@ -23516,14 +23518,14 @@
       <c r="J21" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="93"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="113"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="30">
         <v>20</v>
       </c>
@@ -23548,20 +23550,20 @@
       </c>
       <c r="I22" s="33">
         <f>IF(F22&lt;=A$3,1/A$3,NA())</f>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J22" s="36">
         <f ca="1">ABS(H22-I22)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K22" s="111"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="113"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="30">
         <v>21</v>
       </c>
@@ -23587,20 +23589,20 @@
       </c>
       <c r="I23" s="33">
         <f t="shared" ref="I23:I36" si="7">IF(F23&lt;=A$3,1/A$3,NA())</f>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J23" s="36">
         <f t="shared" ref="J23:J36" ca="1" si="8">ABS(H23-I23)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K23" s="111"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="113"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="30">
         <v>22</v>
       </c>
@@ -23618,28 +23620,28 @@
       </c>
       <c r="G24" s="31">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="33">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J24" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="K24" s="91"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K24" s="111"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="113"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="99"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="30">
         <v>23</v>
       </c>
@@ -23665,17 +23667,17 @@
       </c>
       <c r="I25" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J25" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K25" s="111"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="113"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="30">
@@ -23703,17 +23705,17 @@
       </c>
       <c r="I26" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J26" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K26" s="111"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="113"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="30">
@@ -23741,17 +23743,17 @@
       </c>
       <c r="I27" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J27" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K27" s="91"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K27" s="111"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="113"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30">
@@ -23779,17 +23781,17 @@
       </c>
       <c r="I28" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J28" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K28" s="94"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="96"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K28" s="114"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="116"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30">
@@ -23817,11 +23819,11 @@
       </c>
       <c r="I29" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J29" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23850,19 +23852,19 @@
       </c>
       <c r="I30" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J30" s="36">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K30" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="88"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="90"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="110"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="30">
@@ -23890,16 +23892,16 @@
       </c>
       <c r="I31" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J31" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L31" s="91"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L31" s="111"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="113"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="30">
@@ -23927,16 +23929,16 @@
       </c>
       <c r="I32" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J32" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L32" s="91"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="93"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L32" s="111"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="113"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="30">
@@ -23964,16 +23966,16 @@
       </c>
       <c r="I33" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J33" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L33" s="94"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="96"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L33" s="114"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="116"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="30">
@@ -23993,19 +23995,19 @@
       </c>
       <c r="G34" s="31">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="33">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="33">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J34" s="33">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -24028,17 +24030,17 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="H35" s="33">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="33">
+      <c r="H35" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I35" s="33" t="e">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J35" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J35" s="33" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -24061,17 +24063,17 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="H36" s="33">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="33">
+      <c r="H36" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I36" s="33" t="e">
         <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J36" s="33">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.6666666666666666E-2</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" s="33" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -24091,7 +24093,7 @@
       </c>
       <c r="J37" s="33">
         <f ca="1">SUMIF(J22:J36,"&lt;&gt;#N/A")/COUNTIF(J22:J36,"&lt;&gt;#N/A")</f>
-        <v>0.12444444444444443</v>
+        <v>0.14201183431952663</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -75668,24 +75670,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -75925,25 +75909,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C705C33E-EE22-4391-BE29-570BA86210E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8374F016-ABDB-4B47-B726-13276895A1B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C401BC30-9683-4D77-8E53-95B6F9FE08C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -75961,4 +75945,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8374F016-ABDB-4B47-B726-13276895A1B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C705C33E-EE22-4391-BE29-570BA86210E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
+++ b/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{8FA93272-CF2D-4241-8BB3-1E149034B1C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{E3C94FA2-5D85-4372-B450-C551072273D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="810" windowWidth="25230" windowHeight="12900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="795" windowWidth="24990" windowHeight="13110" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Probs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}" mergeInterval="0" personalView="1" xWindow="75" yWindow="54" windowWidth="1682" windowHeight="860" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}" mergeInterval="0" personalView="1" xWindow="84" yWindow="53" windowWidth="1666" windowHeight="874" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -155,9 +155,6 @@
     <t>&lt;= Entering your name makes the rest of the sheet show up!</t>
   </si>
   <si>
-    <t>Table of average errors</t>
-  </si>
-  <si>
     <t>1000 rolls</t>
   </si>
   <si>
@@ -179,13 +176,16 @@
     <t>Average Deviation</t>
   </si>
   <si>
+    <t>Table of average deviations</t>
+  </si>
+  <si>
     <r>
       <t>Column E displays the possible outcomes.  
 The "COUNTIF" command in column G counts the number of occurrences of each outcome. 
 1) Write a formula to calculate the empirical probabilities in column H.  This is done by dividing the frequency of each outcome by the number of rolls (you will need to lock this cell reference in your formula).  
 2) Write a formula to calculate the theoretical probabilities for each outcome in column I.  This is done by dividing 1 by the number of sides of the dice  (you will need to lock this cell reference in your formula).
 3) The absolute difference compares the empirical and theoretical probabilities for each outcome. Write a formula to calculate the average of the absolute differences for each table in cells J19 and I38.
-4) Rerun the sheet 5 times and record the average of the deviations between the empirical probability and the theoretical probability. Do this by pressing &lt;fn&gt;&lt;f9&gt; or just &lt;f9&gt; on windows. You can just type something in the response cell and hit &lt;enter&gt; this will rerun the sheet.</t>
+4) Rerun the sheet 5 times and record the average of the deviations between the empirical probability and the theoretical probability.  You can just type something in the response cell and hit &lt;enter&gt; this will rerun the sheet.</t>
     </r>
     <r>
       <rPr>
@@ -196,7 +196,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Compare how the average deviation changes with number of rolls. </t>
+      <t xml:space="preserve"> Compare how the average deviation (from "The table of average deciations") compares with 1000 vs 4000 rolls. What do you think would happen if we rolled more often? What about less often?  </t>
     </r>
   </si>
 </sst>
@@ -207,9 +207,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -890,28 +897,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -938,10 +945,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -952,212 +959,212 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1169,49 +1176,58 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,121 +1236,112 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1345,7 +1352,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1415,14 +1432,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>975360</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>377952</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1437,7 +1454,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11986260" y="5614035"/>
+          <a:off x="12262485" y="5728335"/>
           <a:ext cx="926592" cy="262890"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1539,15 +1556,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{92E32714-B246-4A72-9D5A-25D8FA465633}" diskRevisions="1" revisionId="1" version="2">
-  <header guid="{DE96BDED-9BE8-41A0-BB16-2589F4D5EB6D}" dateTime="2022-05-05T11:47:00" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{92E32714-B246-4A72-9D5A-25D8FA465633}" dateTime="2022-05-05T11:47:15" maxSheetId="3" userName="Richard Ketchersid" r:id="rId2" minRId="1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9455C678-0DBA-46FC-ACA4-FB827F23B2A6}">
+  <header guid="{9455C678-0DBA-46FC-ACA4-FB827F23B2A6}" dateTime="2022-06-10T13:07:48" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1560,26 +1575,9 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="1">
-    <oc r="C1" t="inlineStr">
-      <is>
-        <t>Richard</t>
-      </is>
-    </oc>
-    <nc r="C1" t="inlineStr">
-      <is>
-        <t>Your Name</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{92E32714-B246-4A72-9D5A-25D8FA465633}" name="Richard Ketchersid" id="-1739569148" dateTime="2022-05-05T11:47:00"/>
+  <userInfo guid="{9455C678-0DBA-46FC-ACA4-FB827F23B2A6}" name="Richard Ketchersid" id="-1739541953" dateTime="2022-06-10T13:07:48"/>
 </users>
 </file>
 
@@ -1873,15 +1871,15 @@
       <c r="A1" s="66"/>
       <c r="B1" s="67"/>
       <c r="C1" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="69"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="58"/>
       <c r="J1" s="59"/>
     </row>
@@ -1930,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>17</v>
@@ -1949,11 +1947,11 @@
       </c>
       <c r="C4" s="43">
         <f ca="1">RANDBETWEEN(1,$A$4)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="44">
         <f ca="1">RANDBETWEEN(1,$A$4)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="95" t="s">
         <v>15</v>
@@ -1991,7 +1989,7 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G18" ca="1" si="0">COUNTIF(C$4:C$1003,F5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
@@ -2150,7 +2148,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="19">
         <v>8</v>
@@ -2163,7 +2161,7 @@
       </c>
       <c r="G11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
@@ -2373,8 +2371,8 @@
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="96"/>
-      <c r="I19" s="127" t="s">
-        <v>39</v>
+      <c r="I19" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="J19" s="46"/>
       <c r="K19" s="83"/>
@@ -2436,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" s="83"/>
       <c r="L22" s="84"/>
@@ -2504,7 +2502,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
@@ -2629,7 +2627,7 @@
       </c>
       <c r="G30" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
@@ -2812,8 +2810,8 @@
         <v>35</v>
       </c>
       <c r="D38" s="44"/>
-      <c r="I38" s="127" t="s">
-        <v>39</v>
+      <c r="I38" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="J38" s="45"/>
     </row>
@@ -2828,8 +2826,8 @@
         <v>37</v>
       </c>
       <c r="D40" s="44"/>
-      <c r="H40" s="64" t="s">
-        <v>32</v>
+      <c r="H40" s="127" t="s">
+        <v>39</v>
       </c>
       <c r="I40" s="65"/>
     </row>
@@ -2839,13 +2837,13 @@
       </c>
       <c r="D41" s="44"/>
       <c r="G41" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="50" t="s">
         <v>33</v>
-      </c>
-      <c r="I41" s="50" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -26652,7 +26650,7 @@
   </sortState>
   <customSheetViews>
     <customSheetView guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
@@ -26674,13 +26672,18 @@
     <mergeCell ref="A11:A22"/>
   </mergeCells>
   <conditionalFormatting sqref="K30:L33 J40 B4004:L5000 A2:L4 A5:A4993 E5:L7 E40:H40 E37:J39 E41:L4003 E36:L36 E9:J35 E8:K8 B5:D4003">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$C$1="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1 E1:H1">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>XFC1="Your Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:H1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>C1&lt;&gt;"Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -26693,7 +26696,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{E1A4DE14-8768-49FE-8A72-7CB5D3469DEA}">
+          <x14:cfRule type="expression" priority="11" id="{E1A4DE14-8768-49FE-8A72-7CB5D3469DEA}">
             <xm:f>AND(NOT(ISBLANK($A$10)),OR(NOT(_xlfn.ISFORMULA($A$10)),$A$10&lt;&gt;Sheet1!$A$14))</xm:f>
             <x14:dxf>
               <font>
@@ -26706,7 +26709,7 @@
           <xm:sqref>A10 A11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="8" id="{E00B1531-A7D5-44FE-ADC6-B6C95D6E5FDE}">
+          <x14:cfRule type="expression" priority="9" id="{E00B1531-A7D5-44FE-ADC6-B6C95D6E5FDE}">
             <xm:f>AND($F4&lt;=$A$4,H4=Sheet1!H3,_xlfn.ISFORMULA(H4))</xm:f>
             <x14:dxf>
               <font>
@@ -26719,7 +26722,7 @@
           <xm:sqref>H4:I18 H23:I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{3832072C-B671-4D7F-842F-5F1AE4738748}">
+          <x14:cfRule type="expression" priority="7" id="{3832072C-B671-4D7F-842F-5F1AE4738748}">
             <xm:f>J19=Sheet1!J18</xm:f>
             <x14:dxf>
               <font>
@@ -26732,7 +26735,7 @@
           <xm:sqref>J19 J38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{569EEA39-7AD2-4BAA-9FD1-4FFEA10C6A1F}">
+          <x14:cfRule type="expression" priority="4" id="{569EEA39-7AD2-4BAA-9FD1-4FFEA10C6A1F}">
             <xm:f>AND(NOT(ISBLANK($A$7)),OR(NOT(_xlfn.ISFORMULA($A$7)),$A$7&lt;&gt;Sheet1!$A$11))</xm:f>
             <x14:dxf>
               <font>
@@ -26838,11 +26841,11 @@
       </c>
       <c r="C3" s="30">
         <f ca="1">Probs!C4</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="30">
         <f ca="1">Probs!D4</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="124" t="s">
         <v>15</v>
@@ -26895,11 +26898,11 @@
       </c>
       <c r="G4" s="30">
         <f t="shared" ref="G4:G17" ca="1" si="0">COUNTIF(C$3:C$1002,F4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="32">
         <f t="shared" ref="H4:H17" ca="1" si="1">IF(F4&lt;=A$3,G4/A$13,NA())</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" ref="I4:I17" si="2">IF(F4&lt;=A$3,1/A$3,NA())</f>
@@ -26907,7 +26910,7 @@
       </c>
       <c r="J4" s="32">
         <f t="shared" ref="J4:J17" ca="1" si="3">ABS(H4-I4)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>21</v>
@@ -27139,11 +27142,11 @@
       </c>
       <c r="G10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="32">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="32">
         <f t="shared" si="2"/>
@@ -27151,7 +27154,7 @@
       </c>
       <c r="J10" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92307692307692313</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K10" s="107"/>
       <c r="L10" s="108"/>
@@ -27474,7 +27477,7 @@
       </c>
       <c r="J18" s="35">
         <f ca="1">SUMIF(J3:J17,"&lt;&gt;#N/A")/COUNTIF(J3:J17,"&lt;&gt;#N/A")</f>
-        <v>0.14201183431952663</v>
+        <v>0.14201183431952658</v>
       </c>
       <c r="K18" s="107"/>
       <c r="L18" s="108"/>
@@ -27660,11 +27663,11 @@
       </c>
       <c r="G24" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="32">
         <f t="shared" si="7"/>
@@ -27672,7 +27675,7 @@
       </c>
       <c r="J24" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="K24" s="107"/>
       <c r="L24" s="108"/>
@@ -27851,11 +27854,11 @@
       </c>
       <c r="G29" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="32">
         <f t="shared" si="7"/>
@@ -27863,7 +27866,7 @@
       </c>
       <c r="J29" s="32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92307692307692313</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28133,7 +28136,7 @@
       </c>
       <c r="J37" s="32">
         <f ca="1">SUMIF(J22:J36,"&lt;&gt;#N/A")/COUNTIF(J22:J36,"&lt;&gt;#N/A")</f>
-        <v>0.14201183431952663</v>
+        <v>0.1420118343195266</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -79711,6 +79714,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -79950,25 +79971,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C705C33E-EE22-4391-BE29-570BA86210E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8374F016-ABDB-4B47-B726-13276895A1B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C401BC30-9683-4D77-8E53-95B6F9FE08C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -79986,22 +80007,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8374F016-ABDB-4B47-B726-13276895A1B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C705C33E-EE22-4391-BE29-570BA86210E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
+++ b/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{E3C94FA2-5D85-4372-B450-C551072273D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{4D200673-BCF2-45EA-B32E-A3C531C0B7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="795" windowWidth="24990" windowHeight="13110" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Probs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Number of sides</t>
   </si>
@@ -199,6 +200,9 @@
       <t xml:space="preserve"> Compare how the average deviation (from "The table of average deciations") compares with 1000 vs 4000 rolls. What do you think would happen if we rolled more often? What about less often?  </t>
     </r>
   </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,6 +362,14 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -900,7 +912,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1115,6 +1127,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,6 +1190,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1340,11 +1358,8 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1353,16 +1368,6 @@
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1390,6 +1395,16 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1556,16 +1571,13 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9455C678-0DBA-46FC-ACA4-FB827F23B2A6}">
-  <header guid="{9455C678-0DBA-46FC-ACA4-FB827F23B2A6}" dateTime="2022-06-10T13:07:48" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6A862705-B1CD-44DC-8927-B4F99F10EBEB}">
+  <header guid="{6A862705-B1CD-44DC-8927-B4F99F10EBEB}" dateTime="2022-07-20T14:01:08" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
+      <sheetId val="3"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1577,7 +1589,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{9455C678-0DBA-46FC-ACA4-FB827F23B2A6}" name="Richard Ketchersid" id="-1739541953" dateTime="2022-06-10T13:07:48"/>
+  <userInfo guid="{6A862705-B1CD-44DC-8927-B4F99F10EBEB}" name="Richard Ketchersid" id="-1739575602" dateTime="2022-07-20T14:01:08"/>
 </users>
 </file>
 
@@ -1868,12 +1880,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="69"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="62" t="s">
         <v>31</v>
       </c>
@@ -1884,26 +1896,26 @@
       <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:15" ht="15.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="79" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="80"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1912,9 +1924,9 @@
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="94"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1951,9 +1963,9 @@
       </c>
       <c r="D4" s="44">
         <f ca="1">RANDBETWEEN(1,$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="97" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="6">
@@ -1982,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="44"/>
-      <c r="E5" s="96"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="6">
         <f>F4+1</f>
         <v>2</v>
@@ -2012,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="44"/>
-      <c r="E6" s="96"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="6">
         <f t="shared" ref="F6:F18" si="2">F5+1</f>
         <v>3</v>
@@ -2040,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="44"/>
-      <c r="E7" s="96"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -2067,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="44"/>
-      <c r="E8" s="96"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2082,13 +2094,13 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K8" s="128" t="s">
+      <c r="K8" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="82"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="84"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -2098,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="44"/>
-      <c r="E9" s="96"/>
+      <c r="E9" s="98"/>
       <c r="F9" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -2113,11 +2125,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="87"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
@@ -2125,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="44"/>
-      <c r="E10" s="96"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -2140,21 +2152,21 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="87"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="100" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="19">
         <v>8</v>
       </c>
       <c r="D11" s="44"/>
-      <c r="E11" s="96"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2169,19 +2181,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="19">
         <v>9</v>
       </c>
       <c r="D12" s="44"/>
-      <c r="E12" s="96"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2196,19 +2208,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="87"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="19">
         <v>10</v>
       </c>
       <c r="D13" s="44"/>
-      <c r="E13" s="96"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -2223,19 +2235,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="87"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="19">
         <v>11</v>
       </c>
       <c r="D14" s="44"/>
-      <c r="E14" s="96"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -2250,19 +2262,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="87"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="19">
         <v>12</v>
       </c>
       <c r="D15" s="44"/>
-      <c r="E15" s="96"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -2277,19 +2289,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="87"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="19">
         <v>13</v>
       </c>
       <c r="D16" s="44"/>
-      <c r="E16" s="96"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -2304,19 +2316,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="87"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="19">
         <v>14</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="96"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -2331,19 +2343,19 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="87"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="19">
         <v>15</v>
       </c>
       <c r="D18" s="44"/>
-      <c r="E18" s="96"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="6">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2358,64 +2370,64 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="87"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="19">
         <v>16</v>
       </c>
       <c r="D19" s="44"/>
-      <c r="E19" s="96"/>
+      <c r="E19" s="98"/>
       <c r="I19" s="61" t="s">
         <v>38</v>
       </c>
       <c r="J19" s="46"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="87"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="19">
         <v>17</v>
       </c>
       <c r="D20" s="44"/>
-      <c r="E20" s="97"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="85"/>
+      <c r="E20" s="99"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="87"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="99"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="19">
         <v>18</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="92" t="s">
+      <c r="F21" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="85"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="87"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="19">
         <v>19</v>
       </c>
@@ -2436,11 +2448,11 @@
       <c r="J22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="83"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="87"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19">
@@ -2460,11 +2472,11 @@
         <f>IF(OR(ISBLANK(H23),ISBLANK(I23))," ",ABS(H23-I23))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K23" s="83"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="87"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
@@ -2485,11 +2497,11 @@
         <f t="shared" ref="J24:J37" si="4">IF(OR(ISBLANK(H24),ISBLANK(I24))," ",ABS(H24-I24))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K24" s="83"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="87"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19">
@@ -2502,7 +2514,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
@@ -2510,11 +2522,11 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K25" s="83"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="87"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="19">
@@ -2535,11 +2547,11 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K26" s="83"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="87"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="19">
@@ -2560,11 +2572,11 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K27" s="83"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="87"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="19">
@@ -2585,11 +2597,11 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="87"/>
     </row>
     <row r="29" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="19">
@@ -2610,11 +2622,11 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K29" s="86"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="90"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="19">
@@ -2638,10 +2650,10 @@
       <c r="K30" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="72"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="73"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="19">
@@ -2662,10 +2674,10 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L31" s="73"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="75"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="76"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="19">
@@ -2686,10 +2698,10 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L32" s="73"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="75"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="76"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
@@ -2710,10 +2722,10 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L33" s="76"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="78"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="79"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="19">
@@ -2726,7 +2738,7 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
@@ -2826,10 +2838,10 @@
         <v>37</v>
       </c>
       <c r="D40" s="44"/>
-      <c r="H40" s="127" t="s">
+      <c r="H40" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="65"/>
+      <c r="I40" s="66"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="19">
@@ -26682,7 +26694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:H1">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>C1&lt;&gt;"Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26754,6 +26766,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2556D979-EF39-4518-B3DA-699DDF413E67}">
+  <dimension ref="B4:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="129" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}" state="hidden">
+      <selection activeCell="H12" sqref="H12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB1D6A-45E2-46ED-8067-804FE0DDEAD1}">
   <dimension ref="A1:O4002"/>
   <sheetViews>
@@ -26778,26 +26866,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="122" t="s">
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="123"/>
+      <c r="L1" s="125"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -26806,9 +26894,9 @@
       <c r="B2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="25" t="s">
         <v>2</v>
       </c>
@@ -26845,9 +26933,9 @@
       </c>
       <c r="D3" s="30">
         <f ca="1">Probs!D4</f>
-        <v>3</v>
-      </c>
-      <c r="E3" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="126" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="31">
@@ -26877,7 +26965,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="103" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="29">
@@ -26891,7 +26979,7 @@
         <f>Probs!D5</f>
         <v>0</v>
       </c>
-      <c r="E4" s="125"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="31">
         <f>F3+1</f>
         <v>2</v>
@@ -26920,7 +27008,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="29">
         <v>3</v>
       </c>
@@ -26932,7 +27020,7 @@
         <f>Probs!D6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="125"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="31">
         <f t="shared" ref="F5:F17" si="4">F4+1</f>
         <v>3</v>
@@ -26961,7 +27049,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="29">
         <v>4</v>
       </c>
@@ -26973,7 +27061,7 @@
         <f>Probs!D7</f>
         <v>0</v>
       </c>
-      <c r="E6" s="125"/>
+      <c r="E6" s="127"/>
       <c r="F6" s="31">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -27002,7 +27090,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="29">
         <v>5</v>
       </c>
@@ -27014,7 +27102,7 @@
         <f>Probs!D8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="125"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="31">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -27035,16 +27123,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="106"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="108"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="29">
         <v>6</v>
       </c>
@@ -27056,7 +27144,7 @@
         <f>Probs!D9</f>
         <v>0</v>
       </c>
-      <c r="E8" s="125"/>
+      <c r="E8" s="127"/>
       <c r="F8" s="31">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -27077,11 +27165,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="111"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
@@ -27096,7 +27184,7 @@
         <f>Probs!D10</f>
         <v>0</v>
       </c>
-      <c r="E9" s="125"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="31">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -27117,11 +27205,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="29">
@@ -27135,7 +27223,7 @@
         <f>Probs!D11</f>
         <v>0</v>
       </c>
-      <c r="E10" s="125"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="31">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -27156,11 +27244,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K10" s="107"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -27177,7 +27265,7 @@
         <f>Probs!D12</f>
         <v>0</v>
       </c>
-      <c r="E11" s="125"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="31">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -27198,11 +27286,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="111"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -27219,7 +27307,7 @@
         <f>Probs!D13</f>
         <v>0</v>
       </c>
-      <c r="E12" s="125"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="31">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -27240,11 +27328,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K12" s="107"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="111"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
@@ -27262,7 +27350,7 @@
         <f>Probs!D14</f>
         <v>0</v>
       </c>
-      <c r="E13" s="125"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="31">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -27283,11 +27371,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K13" s="107"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="111"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
@@ -27304,7 +27392,7 @@
         <f>Probs!D15</f>
         <v>0</v>
       </c>
-      <c r="E14" s="125"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="31">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -27325,11 +27413,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K14" s="107"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -27346,7 +27434,7 @@
         <f>Probs!D16</f>
         <v>0</v>
       </c>
-      <c r="E15" s="125"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="31">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -27367,11 +27455,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K15" s="107"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="111"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
@@ -27389,7 +27477,7 @@
         <f>Probs!D17</f>
         <v>0</v>
       </c>
-      <c r="E16" s="125"/>
+      <c r="E16" s="127"/>
       <c r="F16" s="31">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -27410,14 +27498,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="107"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="111"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="115" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="29">
@@ -27431,7 +27519,7 @@
         <f>Probs!D18</f>
         <v>0</v>
       </c>
-      <c r="E17" s="126"/>
+      <c r="E17" s="128"/>
       <c r="F17" s="31">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -27452,14 +27540,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="107"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="111"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="29">
         <v>16</v>
       </c>
@@ -27479,14 +27567,14 @@
         <f ca="1">SUMIF(J3:J17,"&lt;&gt;#N/A")/COUNTIF(J3:J17,"&lt;&gt;#N/A")</f>
         <v>0.14201183431952658</v>
       </c>
-      <c r="K18" s="107"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="111"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="114"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="29">
         <v>17</v>
       </c>
@@ -27499,14 +27587,14 @@
         <v>0</v>
       </c>
       <c r="E19" s="38"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="111"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="114"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="29">
         <v>18</v>
       </c>
@@ -27519,21 +27607,21 @@
         <v>0</v>
       </c>
       <c r="E20" s="38"/>
-      <c r="F20" s="116" t="s">
+      <c r="F20" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="109"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="111"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="29">
         <v>19</v>
       </c>
@@ -27561,14 +27649,14 @@
       <c r="J21" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="107"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="111"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="29">
         <v>20</v>
       </c>
@@ -27599,14 +27687,14 @@
         <f ca="1">ABS(H22-I22)</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K22" s="107"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="111"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="29">
         <v>21</v>
       </c>
@@ -27638,14 +27726,14 @@
         <f t="shared" ref="J23:J36" ca="1" si="8">ABS(H23-I23)</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K23" s="107"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="111"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="29">
         <v>22</v>
       </c>
@@ -27663,11 +27751,11 @@
       </c>
       <c r="G24" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="32">
         <f t="shared" si="7"/>
@@ -27675,16 +27763,16 @@
       </c>
       <c r="J24" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="K24" s="107"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="109"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K24" s="109"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="111"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="29">
         <v>23</v>
       </c>
@@ -27716,11 +27804,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K25" s="107"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="111"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="29">
@@ -27754,11 +27842,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K26" s="107"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="111"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="29">
@@ -27792,11 +27880,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K27" s="107"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="111"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29">
@@ -27830,11 +27918,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K28" s="110"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="114"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="29">
@@ -27904,10 +27992,10 @@
       <c r="K30" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="108"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="29">
@@ -27941,10 +28029,10 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L31" s="107"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="111"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="29">
@@ -27978,10 +28066,10 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L32" s="107"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="111"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="29">
@@ -28001,11 +28089,11 @@
       </c>
       <c r="G33" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="32">
         <f t="shared" si="7"/>
@@ -28013,12 +28101,12 @@
       </c>
       <c r="J33" s="32">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L33" s="110"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="112"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="L33" s="112"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="114"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="29">
@@ -28136,7 +28224,7 @@
       </c>
       <c r="J37" s="32">
         <f ca="1">SUMIF(J22:J36,"&lt;&gt;#N/A")/COUNTIF(J22:J36,"&lt;&gt;#N/A")</f>
-        <v>0.1420118343195266</v>
+        <v>0.14201183431952663</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -79714,24 +79802,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -79971,25 +80041,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C705C33E-EE22-4391-BE29-570BA86210E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8374F016-ABDB-4B47-B726-13276895A1B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C401BC30-9683-4D77-8E53-95B6F9FE08C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -80007,4 +80077,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8374F016-ABDB-4B47-B726-13276895A1B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C705C33E-EE22-4391-BE29-570BA86210E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
+++ b/144F20/Topic 5/Modified Topic 5 DQ 1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{4D200673-BCF2-45EA-B32E-A3C531C0B7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{61DC0ACE-1CA0-4079-9AF1-ECCDC775E072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="795" windowWidth="24990" windowHeight="13110" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Probs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -1254,6 +1254,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1357,9 +1360,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1572,12 +1572,19 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6A862705-B1CD-44DC-8927-B4F99F10EBEB}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BF976285-ECF3-41F2-99C7-4C264316754E}" diskRevisions="1" version="2">
   <header guid="{6A862705-B1CD-44DC-8927-B4F99F10EBEB}" dateTime="2022-07-20T14:01:08" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BF976285-ECF3-41F2-99C7-4C264316754E}" dateTime="2022-07-20T14:43:07" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1587,9 +1594,17 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}" action="delete"/>
+  <rcv guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{6A862705-B1CD-44DC-8927-B4F99F10EBEB}" name="Richard Ketchersid" id="-1739575602" dateTime="2022-07-20T14:01:08"/>
+  <userInfo guid="{BF976285-ECF3-41F2-99C7-4C264316754E}" name="Richard Ketchersid" id="-1739550368" dateTime="2022-07-20T14:42:49"/>
 </users>
 </file>
 
@@ -1959,11 +1974,11 @@
       </c>
       <c r="C4" s="43">
         <f ca="1">RANDBETWEEN(1,$A$4)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4" s="44">
         <f ca="1">RANDBETWEEN(1,$A$4)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E4" s="97" t="s">
         <v>15</v>
@@ -2001,7 +2016,7 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G18" ca="1" si="0">COUNTIF(C$4:C$1003,F5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
@@ -2308,7 +2323,7 @@
       </c>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
@@ -2589,7 +2604,7 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
@@ -2738,7 +2753,7 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
@@ -26766,82 +26781,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2556D979-EF39-4518-B3DA-699DDF413E67}">
-  <dimension ref="B4:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="129" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}" state="hidden">
-      <selection activeCell="H12" sqref="H12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-  </customSheetViews>
-  <mergeCells count="1">
-    <mergeCell ref="B4:G9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB1D6A-45E2-46ED-8067-804FE0DDEAD1}">
   <dimension ref="A1:O4002"/>
   <sheetViews>
@@ -26866,26 +26805,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="125"/>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -26894,9 +26833,9 @@
       <c r="B2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="123"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="124"/>
       <c r="F2" s="25" t="s">
         <v>2</v>
       </c>
@@ -26929,13 +26868,13 @@
       </c>
       <c r="C3" s="30">
         <f ca="1">Probs!C4</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" s="30">
         <f ca="1">Probs!D4</f>
-        <v>12</v>
-      </c>
-      <c r="E3" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="127" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="31">
@@ -26965,7 +26904,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="104" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="29">
@@ -26979,18 +26918,18 @@
         <f>Probs!D5</f>
         <v>0</v>
       </c>
-      <c r="E4" s="127"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="31">
         <f>F3+1</f>
         <v>2</v>
       </c>
       <c r="G4" s="30">
         <f t="shared" ref="G4:G17" ca="1" si="0">COUNTIF(C$3:C$1002,F4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="32">
         <f t="shared" ref="H4:H17" ca="1" si="1">IF(F4&lt;=A$3,G4/A$13,NA())</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" ref="I4:I17" si="2">IF(F4&lt;=A$3,1/A$3,NA())</f>
@@ -26998,7 +26937,7 @@
       </c>
       <c r="J4" s="32">
         <f t="shared" ref="J4:J17" ca="1" si="3">ABS(H4-I4)</f>
-        <v>0.92307692307692313</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>21</v>
@@ -27008,7 +26947,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="29">
         <v>3</v>
       </c>
@@ -27020,7 +26959,7 @@
         <f>Probs!D6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="127"/>
+      <c r="E5" s="128"/>
       <c r="F5" s="31">
         <f t="shared" ref="F5:F17" si="4">F4+1</f>
         <v>3</v>
@@ -27049,7 +26988,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="29">
         <v>4</v>
       </c>
@@ -27061,7 +27000,7 @@
         <f>Probs!D7</f>
         <v>0</v>
       </c>
-      <c r="E6" s="127"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="31">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -27090,7 +27029,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="29">
         <v>5</v>
       </c>
@@ -27102,7 +27041,7 @@
         <f>Probs!D8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="127"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="31">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -27123,16 +27062,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="109"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="105"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="29">
         <v>6</v>
       </c>
@@ -27144,7 +27083,7 @@
         <f>Probs!D9</f>
         <v>0</v>
       </c>
-      <c r="E8" s="127"/>
+      <c r="E8" s="128"/>
       <c r="F8" s="31">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -27165,11 +27104,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="111"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="112"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
@@ -27184,7 +27123,7 @@
         <f>Probs!D10</f>
         <v>0</v>
       </c>
-      <c r="E9" s="127"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="31">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -27205,11 +27144,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="111"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="112"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="29">
@@ -27223,7 +27162,7 @@
         <f>Probs!D11</f>
         <v>0</v>
       </c>
-      <c r="E10" s="127"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="31">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -27244,11 +27183,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="111"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="112"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -27265,7 +27204,7 @@
         <f>Probs!D12</f>
         <v>0</v>
       </c>
-      <c r="E11" s="127"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="31">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -27286,11 +27225,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="111"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="112"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -27307,7 +27246,7 @@
         <f>Probs!D13</f>
         <v>0</v>
       </c>
-      <c r="E12" s="127"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="31">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -27328,11 +27267,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="111"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="112"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
@@ -27350,7 +27289,7 @@
         <f>Probs!D14</f>
         <v>0</v>
       </c>
-      <c r="E13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="F13" s="31">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -27371,11 +27310,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="111"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="112"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
@@ -27392,7 +27331,7 @@
         <f>Probs!D15</f>
         <v>0</v>
       </c>
-      <c r="E14" s="127"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="31">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -27413,11 +27352,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K14" s="109"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="111"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="112"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -27434,18 +27373,18 @@
         <f>Probs!D16</f>
         <v>0</v>
       </c>
-      <c r="E15" s="127"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="31">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="32">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="32">
         <f t="shared" si="2"/>
@@ -27453,13 +27392,13 @@
       </c>
       <c r="J15" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K15" s="109"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="111"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="K15" s="110"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="112"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
@@ -27477,7 +27416,7 @@
         <f>Probs!D17</f>
         <v>0</v>
       </c>
-      <c r="E16" s="127"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="31">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -27498,14 +27437,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="109"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="111"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="112"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="116" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="29">
@@ -27519,7 +27458,7 @@
         <f>Probs!D18</f>
         <v>0</v>
       </c>
-      <c r="E17" s="128"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="31">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -27540,14 +27479,14 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="111"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="112"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="29">
         <v>16</v>
       </c>
@@ -27565,16 +27504,16 @@
       </c>
       <c r="J18" s="35">
         <f ca="1">SUMIF(J3:J17,"&lt;&gt;#N/A")/COUNTIF(J3:J17,"&lt;&gt;#N/A")</f>
-        <v>0.14201183431952658</v>
-      </c>
-      <c r="K18" s="109"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="111"/>
+        <v>0.14201183431952663</v>
+      </c>
+      <c r="K18" s="110"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="112"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="29">
         <v>17</v>
       </c>
@@ -27587,14 +27526,14 @@
         <v>0</v>
       </c>
       <c r="E19" s="38"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="111"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="112"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="116"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="29">
         <v>18</v>
       </c>
@@ -27607,21 +27546,21 @@
         <v>0</v>
       </c>
       <c r="E20" s="38"/>
-      <c r="F20" s="118" t="s">
+      <c r="F20" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="111"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="112"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="29">
         <v>19</v>
       </c>
@@ -27649,14 +27588,14 @@
       <c r="J21" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="109"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="111"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="112"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="29">
         <v>20</v>
       </c>
@@ -27687,14 +27626,14 @@
         <f ca="1">ABS(H22-I22)</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K22" s="109"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="111"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="112"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="29">
         <v>21</v>
       </c>
@@ -27726,14 +27665,14 @@
         <f t="shared" ref="J23:J36" ca="1" si="8">ABS(H23-I23)</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K23" s="109"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="111"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="112"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="29">
         <v>22</v>
       </c>
@@ -27765,14 +27704,14 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K24" s="109"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="111"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="112"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="29">
         <v>23</v>
       </c>
@@ -27804,11 +27743,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K25" s="109"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="111"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="112"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="29">
@@ -27842,11 +27781,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K26" s="109"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="111"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="29">
@@ -27866,11 +27805,11 @@
       </c>
       <c r="G27" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="32">
         <f t="shared" si="7"/>
@@ -27878,13 +27817,13 @@
       </c>
       <c r="J27" s="35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="111"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="112"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29">
@@ -27918,11 +27857,11 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K28" s="112"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="114"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="115"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="29">
@@ -27992,10 +27931,10 @@
       <c r="K30" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="106"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="108"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="109"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="29">
@@ -28029,10 +27968,10 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L31" s="109"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="111"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="112"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="29">
@@ -28066,10 +28005,10 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L32" s="109"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="111"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="112"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="29">
@@ -28089,11 +28028,11 @@
       </c>
       <c r="G33" s="30">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="32">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="32">
         <f t="shared" si="7"/>
@@ -28101,12 +28040,12 @@
       </c>
       <c r="J33" s="32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="L33" s="112"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="114"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L33" s="113"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="115"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="29">
@@ -28224,7 +28163,7 @@
       </c>
       <c r="J37" s="32">
         <f ca="1">SUMIF(J22:J36,"&lt;&gt;#N/A")/COUNTIF(J22:J36,"&lt;&gt;#N/A")</f>
-        <v>0.14201183431952663</v>
+        <v>0.1420118343195266</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -79798,6 +79737,82 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2556D979-EF39-4518-B3DA-699DDF413E67}">
+  <dimension ref="B4:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{657628FB-1EAB-42F3-921C-7287B7883E1A}" state="hidden">
+      <selection activeCell="H12" sqref="H12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -80042,21 +80057,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -80080,6 +80095,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C705C33E-EE22-4391-BE29-570BA86210E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8374F016-ABDB-4B47-B726-13276895A1B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -80087,12 +80110,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C705C33E-EE22-4391-BE29-570BA86210E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>